--- a/Data Files/ComponentVersionScheme.xlsx
+++ b/Data Files/ComponentVersionScheme.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="ilove"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="22992" windowHeight="10056" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="22995" windowHeight="10050" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Top" sheetId="1" r:id="rId4"/>
-    <sheet name="IssueType" sheetId="2" r:id="rId5"/>
-    <sheet name="SchemesShortLink" sheetId="3" r:id="rId6"/>
+    <sheet name="Top" sheetId="1" r:id="rId1"/>
+    <sheet name="IssueType" sheetId="2" r:id="rId2"/>
+    <sheet name="SchemesShortLink" sheetId="3" r:id="rId3"/>
+    <sheet name="FromStatus" sheetId="4" r:id="rId4"/>
+    <sheet name="WorkflowType" sheetId="5" r:id="rId5"/>
+    <sheet name="WorkflowScreen" sheetId="6" r:id="rId6"/>
+    <sheet name="PostFunctionCounter" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1600249058" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>clickableTab</t>
   </si>
@@ -122,41 +125,19 @@
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
         <rFont val="Segoe UI"/>
+        <family val="2"/>
         <charset val="238"/>
-        <family val="2"/>
-        <sz val="9"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1600249058" kern="0">
-              <pm:latin face="Segoe UI" sz="180" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>@</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="238"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1600249058" kern="1">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>href='/secure/admin/SelectIssueTypeSchemeForProject!default.jspa?projectId=10112']</t>
     </r>
@@ -175,366 +156,254 @@
   </si>
   <si>
     <t>//a[@href='/secure/admin/SelectProjectScheme!default.jspa?projectId=10112']</t>
+  </si>
+  <si>
+    <t>FromStatus</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'FinishedEating')]/ancestor::tr/td[2]/span[contains(., 'Consumption')]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'BarfedBackFood')]/ancestor::tr/td[2]/span[contains(., 'Consumption')]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'FinishedInStomach')]/ancestor::tr/td[2]/span[contains(., 'Reopened')]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'WCSitDown')]/ancestor::tr/td[2]/span[contains(., 'All')]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'BarfedBackFood')]/ancestor::tr/td[2]/span[contains(., 'First step')]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Eating')]/ancestor::tr/td[2]/span[contains(., 'First step')]</t>
+  </si>
+  <si>
+    <t>FIRST STEP</t>
+  </si>
+  <si>
+    <t>CONSUMPTION</t>
+  </si>
+  <si>
+    <t>REOPENED</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>WorkflowType</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Reused</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Create')]/ancestor::tr/td[3]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Eating')]/ancestor::tr/td[3]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'FinishedEating')]/ancestor::tr/td[3]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'BarfedBackFood')]/ancestor::tr/td[3]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'FinishedInStomach')]/ancestor::tr/td[3]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'WCSitDown')]/ancestor::tr/td[3]</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Create')]/ancestor::tr/td[4]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Eating')]/ancestor::tr/td[4]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'FinishedEating')]/ancestor::tr/td[4]</t>
+  </si>
+  <si>
+    <t>TWT: Software Development Bug Screen</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Create')]/ancestor::tr/td[contains(., 'Default')]/aui-badge</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Eating')]/ancestor::tr/td[contains(., 'Default')]/aui-badge</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'BarfedBackFood')]/ancestor::tr/td[contains(., 'Default')]/aui-badge</t>
+  </si>
+  <si>
+    <t>expectedNumber</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'BarfedBackFood')]/ancestor::tr/td[contains(., 'Custom')]/aui-badge[@class='aui-badge-primary']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;Ft&quot;;\-#,##0\ &quot;Ft&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;Ft&quot;;[Red]\-#,##0\ &quot;Ft&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;Ft&quot;;\-#,##0.00\ &quot;Ft&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;Ft&quot;;[Red]\-#,##0.00\ &quot;Ft&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;\ &quot;Ft&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
-  </numFmts>
-  <fonts count="16">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <charset val="238"/>
       <family val="3"/>
-      <color rgb="FF222222"/>
-      <sz val="9"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="222222" ulstyle="none" kern="1">
-            <pm:latin face="Consolas" sz="180" lang="default"/>
-            <pm:cs face="Times New Roman" sz="180" lang="default"/>
-            <pm:ea face="SimSun" sz="180" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="0000FF" ulstyle="single" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="0000FF" ulstyle="single" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-            <hyperlink type="6" url="https://jira2.codecool.codecanvas.hu/plugins/servlet/project-config/TWT/workflows" location="" text=""/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="0000FF" ulstyle="single" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-            <hyperlink type="6" url="https://jira2.codecool.codecanvas.hu/plugins/servlet/project-config/TWT/screens" location="" text=""/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="0000FF" ulstyle="single" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-            <hyperlink type="6" url="https://jira2.codecool.codecanvas.hu/plugins/servlet/project-config/TWT/administer-versions" location="" text=""/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="0000FF" ulstyle="single" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-            <hyperlink type="6" url="https://jira2.codecool.codecanvas.hu/plugins/servlet/project-config/TWT/summary" location="" text=""/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="0000FF" ulstyle="single" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-            <hyperlink type="6" url="https://jira2.codecool.codecanvas.hu/plugins/servlet/project-config/TWT/administer-components" location="" text=""/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="0000FF" ulstyle="single" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-            <hyperlink type="6" url="https://jira2.codecool.codecanvas.hu/secure/project/EditProject!default.jspa?pid=10112" location="" text=""/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="0000FF" ulstyle="single" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-            <hyperlink type="6" url="https://jira2.codecool.codecanvas.hu/plugins/servlet/project-config/TWT/roles" location="" text=""/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="0000FF" ulstyle="single" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-            <hyperlink type="6" url="https://jira2.codecool.codecanvas.hu/plugins/servlet/project-config/TWT/permissions" location="" text=""/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" fgClr="0000FF" ulstyle="single" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-            <hyperlink type="6" url="https://jira2.codecool.codecanvas.hu/plugins/servlet/project-config/TWT/notifications" location="" text=""/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" ulstyle="none" kern="1">
-            <pm:latin face="Segoe UI" sz="180" lang="default"/>
-            <pm:cs face="Times New Roman" sz="180" lang="default"/>
-            <pm:ea face="SimSun" sz="180" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" ulstyle="none">
-            <pm:latin face="Segoe UI" sz="180" lang="default"/>
-            <pm:cs face="Arial" sz="180" lang="default"/>
-            <pm:ea face="Arial" sz="180" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600249058" ulstyle="none" kern="1">
-            <pm:latin face="Segoe UI" sz="180" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600249058" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600249058"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600249058"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -543,17 +412,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1600249058" count="1">
         <pm:charStyle name="Normál" fontId="0" Id="1"/>
@@ -821,21 +694,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.178571" customWidth="1"/>
-    <col min="2" max="2" width="57.035714" customWidth="1"/>
-    <col min="3" max="3" width="81.857143" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -846,80 +719,80 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -933,25 +806,8 @@
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1600249058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1600249058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1600249058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600249058" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600249058" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1600249058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -964,20 +820,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.285714" customWidth="1"/>
-    <col min="2" max="2" width="78.571429" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -985,19 +841,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1006,25 +862,8 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1600249058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1600249058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1600249058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600249058" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600249058" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1600249058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -1037,73 +876,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.000000" customWidth="1"/>
+    <col min="1" max="1" width="85.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1600249058" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1600249058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1600249058" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600249058" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600249058" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1600249058" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -1113,4 +935,263 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="151.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="105.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Files/ComponentVersionScheme.xlsx
+++ b/Data Files/ComponentVersionScheme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="22995" windowHeight="10050" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="22995" windowHeight="10050" tabRatio="500" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="WorkflowType" sheetId="5" r:id="rId5"/>
     <sheet name="WorkflowScreen" sheetId="6" r:id="rId6"/>
     <sheet name="PostFunctionCounter" sheetId="7" r:id="rId7"/>
+    <sheet name="ConditionsCounter" sheetId="8" r:id="rId8"/>
+    <sheet name="ValidatorsCounter" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>clickableTab</t>
   </si>
@@ -252,6 +254,18 @@
   </si>
   <si>
     <t>//span[contains(., 'BarfedBackFood')]/ancestor::tr/td[contains(., 'Custom')]/aui-badge[@class='aui-badge-primary']</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Eating')]/ancestor::tr/td[5]/aui-badge</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Create')]/ancestor::tr/td[6]/aui-badge</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Create')]/ancestor::tr/td[5]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Eating')]/ancestor::tr/td[6]</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,4 +1208,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="105.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Files/ComponentVersionScheme.xlsx
+++ b/Data Files/ComponentVersionScheme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="22995" windowHeight="10050" tabRatio="500" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="22995" windowHeight="10050" tabRatio="500" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="PostFunctionCounter" sheetId="7" r:id="rId7"/>
     <sheet name="ConditionsCounter" sheetId="8" r:id="rId8"/>
     <sheet name="ValidatorsCounter" sheetId="9" r:id="rId9"/>
+    <sheet name="PostFunctionText" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>clickableTab</t>
   </si>
@@ -266,6 +267,30 @@
   </si>
   <si>
     <t>//span[contains(., 'Eating')]/ancestor::tr/td[6]</t>
+  </si>
+  <si>
+    <t>rowXpath</t>
+  </si>
+  <si>
+    <t>postFunctionsList</t>
+  </si>
+  <si>
+    <t>//tr[@class='transition-details-row']/td/div/div[@id='glass-transitions-postfunctions-panel-1']/div/div/ol/li</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Create')]/ancestor::td[@class='transition-name']</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'Eating')]/ancestor::td[@class='transition-name']</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'BarfedBackFood')]/ancestor::td[@class='transition-name']</t>
+  </si>
+  <si>
+    <t>//tr[@class='transition-details-row']/td/div/div[@id='glass-transitions-postfunctions-panel-2']/div/div/ol/li</t>
+  </si>
+  <si>
+    <t>//tr[@class='transition-details-row']/td/div/div[@id='glass-transitions-postfunctions-panel-4']/div/div/ol/li</t>
   </si>
 </sst>
 </file>
@@ -833,6 +858,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="2" max="2" width="97" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
@@ -1156,7 +1245,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1304,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
